--- a/uurschema_voorbeeld.xlsx
+++ b/uurschema_voorbeeld.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmvpaeme/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD888E90-67D4-8040-9278-83013520A43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3916FC-2CFE-194B-BAED-40C55B12AA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5349E401-A4A1-4448-B434-73B61E02F742}"/>
+    <workbookView xWindow="3120" yWindow="7520" windowWidth="28040" windowHeight="16940" xr2:uid="{5349E401-A4A1-4448-B434-73B61E02F742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>dag</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>wacht</t>
+  </si>
+  <si>
+    <t>verlof</t>
+  </si>
+  <si>
+    <t>recup</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A5E442-3328-8A4F-83BD-5224EBAC2DE8}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -412,7 +418,7 @@
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +431,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44470</v>
       </c>
@@ -440,7 +452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44471</v>
       </c>
@@ -454,7 +466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44472</v>
       </c>
@@ -468,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44474</v>
       </c>
@@ -482,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44475</v>
       </c>
@@ -496,17 +508,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>44511</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>44511.291666666664</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>44511.75</v>
       </c>
-      <c r="D7" t="b">
+      <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>

--- a/uurschema_voorbeeld.xlsx
+++ b/uurschema_voorbeeld.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmvpaeme/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3916FC-2CFE-194B-BAED-40C55B12AA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD888E90-67D4-8040-9278-83013520A43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="7520" windowWidth="28040" windowHeight="16940" xr2:uid="{5349E401-A4A1-4448-B434-73B61E02F742}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5349E401-A4A1-4448-B434-73B61E02F742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>dag</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>wacht</t>
-  </si>
-  <si>
-    <t>verlof</t>
-  </si>
-  <si>
-    <t>recup</t>
   </si>
 </sst>
 </file>
@@ -405,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A5E442-3328-8A4F-83BD-5224EBAC2DE8}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,7 +412,7 @@
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,14 +425,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44470</v>
       </c>
@@ -452,7 +440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44471</v>
       </c>
@@ -466,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44472</v>
       </c>
@@ -480,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44474</v>
       </c>
@@ -494,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44475</v>
       </c>
@@ -508,37 +496,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44476</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44477</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
         <v>44511</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B7" s="2">
         <v>44511.291666666664</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C7" s="2">
         <v>44511.75</v>
       </c>
-      <c r="D9" t="b">
+      <c r="D7" t="b">
         <v>1</v>
       </c>
     </row>

--- a/uurschema_voorbeeld.xlsx
+++ b/uurschema_voorbeeld.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmvpaeme/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmvpaeme/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD888E90-67D4-8040-9278-83013520A43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ED0B36-E1BB-B44E-BC9E-267E5EFAABBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5349E401-A4A1-4448-B434-73B61E02F742}"/>
+    <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" xr2:uid="{5349E401-A4A1-4448-B434-73B61E02F742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>dag</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>wacht</t>
+  </si>
+  <si>
+    <t>verlof</t>
+  </si>
+  <si>
+    <t>recup</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A5E442-3328-8A4F-83BD-5224EBAC2DE8}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -412,7 +418,7 @@
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +431,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44470</v>
       </c>
@@ -436,11 +448,8 @@
       <c r="C2" s="2">
         <v>44470.875</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44471</v>
       </c>
@@ -450,11 +459,8 @@
       <c r="C3" s="2">
         <v>44471.75</v>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44472</v>
       </c>
@@ -468,7 +474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44474</v>
       </c>
@@ -478,11 +484,8 @@
       <c r="C5" s="2">
         <v>44474.75</v>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44475</v>
       </c>
@@ -492,21 +495,38 @@
       <c r="C6" s="2">
         <v>44475.875</v>
       </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>44511</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>44511.291666666664</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>44511.75</v>
       </c>
-      <c r="D7" t="b">
+      <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>

--- a/uurschema_voorbeeld.xlsx
+++ b/uurschema_voorbeeld.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmvpaeme/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ED0B36-E1BB-B44E-BC9E-267E5EFAABBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDFF6D2-0A2D-904B-AAE1-A9CAB6F2CAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" xr2:uid="{5349E401-A4A1-4448-B434-73B61E02F742}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>dag</t>
   </si>
@@ -45,13 +45,16 @@
     <t>uitgetikt</t>
   </si>
   <si>
-    <t>wacht</t>
-  </si>
-  <si>
-    <t>verlof</t>
-  </si>
-  <si>
-    <t>recup</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A5E442-3328-8A4F-83BD-5224EBAC2DE8}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,9 +419,10 @@
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,14 +435,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44470</v>
       </c>
@@ -448,8 +446,9 @@
       <c r="C2" s="2">
         <v>44470.875</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44471</v>
       </c>
@@ -459,8 +458,9 @@
       <c r="C3" s="2">
         <v>44471.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44472</v>
       </c>
@@ -470,64 +470,76 @@
       <c r="C4" s="2">
         <v>44473.333333333336</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>44474</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>44474.291666666664</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>44474.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>44475</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>44475.291666666664</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>44475.875</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>44476</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44477</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>44511</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>44511.291666666664</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>44511.75</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
